--- a/dadosCasosCOVIDMogiGuacu.xlsx
+++ b/dadosCasosCOVIDMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q239"/>
+  <dimension ref="A1:Q243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13473,6 +13473,226 @@
         <v>35</v>
       </c>
     </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>23/11/2020</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>239</v>
+      </c>
+      <c r="C240" t="n">
+        <v>3686</v>
+      </c>
+      <c r="D240" t="n">
+        <v>99</v>
+      </c>
+      <c r="E240" t="n">
+        <v>38</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.02685838307107976</v>
+      </c>
+      <c r="G240" t="n">
+        <v>3532</v>
+      </c>
+      <c r="H240" t="n">
+        <v>11184</v>
+      </c>
+      <c r="I240" t="n">
+        <v>14870</v>
+      </c>
+      <c r="J240" t="n">
+        <v>32</v>
+      </c>
+      <c r="K240" t="n">
+        <v>111</v>
+      </c>
+      <c r="L240" t="n">
+        <v>3</v>
+      </c>
+      <c r="M240" t="n">
+        <v>108</v>
+      </c>
+      <c r="N240" t="n">
+        <v>160</v>
+      </c>
+      <c r="O240" t="n">
+        <v>17</v>
+      </c>
+      <c r="P240" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>24/11/2020</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>240</v>
+      </c>
+      <c r="C241" t="n">
+        <v>3692</v>
+      </c>
+      <c r="D241" t="n">
+        <v>99</v>
+      </c>
+      <c r="E241" t="n">
+        <v>37</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.02681473456121343</v>
+      </c>
+      <c r="G241" t="n">
+        <v>3539</v>
+      </c>
+      <c r="H241" t="n">
+        <v>11365</v>
+      </c>
+      <c r="I241" t="n">
+        <v>15057</v>
+      </c>
+      <c r="J241" t="n">
+        <v>6</v>
+      </c>
+      <c r="K241" t="n">
+        <v>222</v>
+      </c>
+      <c r="L241" t="n">
+        <v>3</v>
+      </c>
+      <c r="M241" t="n">
+        <v>219</v>
+      </c>
+      <c r="N241" t="n">
+        <v>187</v>
+      </c>
+      <c r="O241" t="n">
+        <v>14</v>
+      </c>
+      <c r="P241" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>25/11/2020</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>241</v>
+      </c>
+      <c r="C242" t="n">
+        <v>3712</v>
+      </c>
+      <c r="D242" t="n">
+        <v>99</v>
+      </c>
+      <c r="E242" t="n">
+        <v>34</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.02667025862068965</v>
+      </c>
+      <c r="G242" t="n">
+        <v>3562</v>
+      </c>
+      <c r="H242" t="n">
+        <v>11438</v>
+      </c>
+      <c r="I242" t="n">
+        <v>15150</v>
+      </c>
+      <c r="J242" t="n">
+        <v>20</v>
+      </c>
+      <c r="K242" t="n">
+        <v>292</v>
+      </c>
+      <c r="L242" t="n">
+        <v>4</v>
+      </c>
+      <c r="M242" t="n">
+        <v>288</v>
+      </c>
+      <c r="N242" t="n">
+        <v>93</v>
+      </c>
+      <c r="O242" t="n">
+        <v>15</v>
+      </c>
+      <c r="P242" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>26/11/2020</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>242</v>
+      </c>
+      <c r="C243" t="n">
+        <v>3734</v>
+      </c>
+      <c r="D243" t="n">
+        <v>99</v>
+      </c>
+      <c r="E243" t="n">
+        <v>38</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.02651312265666845</v>
+      </c>
+      <c r="G243" t="n">
+        <v>3580</v>
+      </c>
+      <c r="H243" t="n">
+        <v>11526</v>
+      </c>
+      <c r="I243" t="n">
+        <v>15260</v>
+      </c>
+      <c r="J243" t="n">
+        <v>22</v>
+      </c>
+      <c r="K243" t="n">
+        <v>307</v>
+      </c>
+      <c r="L243" t="n">
+        <v>6</v>
+      </c>
+      <c r="M243" t="n">
+        <v>301</v>
+      </c>
+      <c r="N243" t="n">
+        <v>110</v>
+      </c>
+      <c r="O243" t="n">
+        <v>14</v>
+      </c>
+      <c r="P243" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
